--- a/crow's foot database notation.xlsx
+++ b/crow's foot database notation.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Center" sheetId="1" r:id="rId1"/>
     <sheet name="Craigslist" sheetId="3" r:id="rId2"/>
     <sheet name="Soccer League" sheetId="4" r:id="rId3"/>
+    <sheet name="SPACE" sheetId="5" r:id="rId4"/>
+    <sheet name="MUSIC" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -153,6 +155,54 @@
   </si>
   <si>
     <t>champion (team_id)</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>planets</t>
+  </si>
+  <si>
+    <t>planets_id</t>
+  </si>
+  <si>
+    <t>orbital</t>
+  </si>
+  <si>
+    <t>orbits_around_id</t>
+  </si>
+  <si>
+    <t>galaxies_id</t>
+  </si>
+  <si>
+    <t>orbits around</t>
+  </si>
+  <si>
+    <t>galaxies</t>
+  </si>
+  <si>
+    <t>Artists</t>
+  </si>
+  <si>
+    <t>Songs</t>
+  </si>
+  <si>
+    <t>Producers</t>
+  </si>
+  <si>
+    <t>duration_in_seconds</t>
+  </si>
+  <si>
+    <t>release_date</t>
+  </si>
+  <si>
+    <t>albums_id</t>
+  </si>
+  <si>
+    <t>Albums</t>
+  </si>
+  <si>
+    <t>album_id</t>
   </si>
 </sst>
 </file>
@@ -176,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -340,11 +390,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -376,12 +439,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -389,6 +446,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1550,10 +1630,10 @@
       <c r="C6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="13"/>
+      <c r="C7" s="11"/>
       <c r="E7" s="9"/>
     </row>
     <row r="10" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1582,7 +1662,7 @@
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="14"/>
+      <c r="C14" s="12"/>
       <c r="E14" s="7" t="s">
         <v>3</v>
       </c>
@@ -1694,7 +1774,7 @@
       <c r="C12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1702,7 +1782,7 @@
       <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" s="5" t="s">
@@ -1732,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1835,12 +1915,12 @@
       <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1875,14 +1955,14 @@
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D21" s="13"/>
+      <c r="D21" s="11"/>
       <c r="F21" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D22" s="9"/>
-      <c r="F22" s="13"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D23" s="9"/>
@@ -1892,4 +1972,211 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="17.109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="19.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="9"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="23"/>
+      <c r="F17" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C16:C17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>